--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM052AssetClass.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM052AssetClass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C1503A-CDF1-46D9-9355-AE2B9F48B79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F82B87-D2F0-450B-9200-250D8C5C6EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,11 @@
     <sheet name="SP" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>備註說明</t>
   </si>
@@ -214,12 +205,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11/12:一類
+    <t>提存比率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StorageRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StorageAmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提存金額</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/9/8新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:一類(正常繳息)
+12:一類(特定放款資產項目)
 21/22/23:二類
 3:三類
 4:四類
 5:五類
-6:折溢價與催收
+61:擔保放款折溢價
+62:催收折溢價與催收費用
 7:應收利息提列</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -314,7 +327,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -410,19 +423,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -438,7 +438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,9 +448,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -463,19 +460,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -484,14 +478,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,10 +499,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -523,9 +514,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -537,6 +525,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -575,9 +581,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -615,9 +621,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -650,26 +656,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -702,26 +691,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -895,281 +867,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" style="18" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" style="20" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="10"/>
+    <col min="1" max="1" width="5.1796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="33.6328125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="17" customWidth="1"/>
+    <col min="5" max="6" width="6.1796875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.54296875" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="21" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+      <c r="A3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="22" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="28">
         <v>6</v>
       </c>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" ht="113.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="153" x14ac:dyDescent="0.4">
+      <c r="A10" s="15">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="15">
         <v>2</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+      <c r="A11" s="15">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="15">
+        <v>3</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="15">
+        <f>A11+1</f>
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="15">
+        <v>16</v>
+      </c>
+      <c r="F12" s="15">
+        <v>2</v>
+      </c>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="29">
+        <f t="shared" ref="A13" si="0">A12+1</f>
+        <v>4</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
-        <f t="shared" ref="A11:A12" si="0">A10+1</f>
-        <v>3</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="18" t="s">
+      <c r="D13" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="29">
+        <v>2</v>
+      </c>
+      <c r="F13" s="29">
+        <v>4</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="29">
+        <v>5</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="29">
+        <v>16</v>
+      </c>
+      <c r="F14" s="29">
+        <v>2</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="15">
+        <v>6</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="15">
+        <v>7</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="18">
-        <v>3</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="18">
-        <v>16</v>
-      </c>
-      <c r="F12" s="18">
-        <v>2</v>
-      </c>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
-        <f t="shared" ref="A13:A16" si="1">A12+1</f>
-        <v>5</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="18" t="s">
+      <c r="E16" s="15">
+        <v>6</v>
+      </c>
+      <c r="G16" s="26"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="15">
+        <v>8</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="18">
-        <v>6</v>
-      </c>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B16" s="26" t="s">
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="15">
+        <v>9</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E18" s="15">
         <v>6</v>
       </c>
     </row>
@@ -1198,15 +1214,15 @@
       <selection pane="bottomLeft" activeCell="B20" sqref="A2:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.90625" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1232,30 +1248,29 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="38.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.88671875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM052AssetClass.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM052AssetClass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr showObjects="none" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L9-報表作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F82B87-D2F0-450B-9200-250D8C5C6EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A214E546-3021-44ED-AC00-AD18113BDDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>備註說明</t>
   </si>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -129,32 +125,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>YearMonth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>資料年月</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>LM052資產分類表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MonthlyLM052AssetClass</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>資產五分類</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AssetClassNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int tbsdyf,  String empNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Comment</t>
@@ -235,6 +215,38 @@
 62:催收折溢價與催收費用
 7:應收利息提列</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新BY
+L7205-五類資產分類上傳轉檔作業</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int tbsdyf,  String empNo,  String jobTxSeq</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>YearMonth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">YearMonth = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findYearMonthAll</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LM052資產分類表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資產五分類</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -438,7 +450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,6 +555,9 @@
     </xf>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -869,39 +884,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.1796875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="33.6328125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="17" customWidth="1"/>
-    <col min="5" max="6" width="6.1796875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.54296875" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="9"/>
+    <col min="1" max="1" width="5.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="33.6640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="17" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.5546875" style="15" customWidth="1"/>
+    <col min="8" max="8" width="41.109375" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="H1" s="35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="18" t="s">
         <v>7</v>
       </c>
@@ -911,14 +930,15 @@
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.4">
-      <c r="A3" s="40" t="s">
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>17</v>
@@ -926,52 +946,54 @@
       <c r="E3" s="10"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="37" t="s">
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="11"/>
       <c r="D4" s="6"/>
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="40" t="s">
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="41"/>
       <c r="C5" s="12"/>
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="4"/>
       <c r="D6" s="6"/>
       <c r="E6" s="10"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="4"/>
       <c r="D7" s="6"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -994,34 +1016,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" s="28">
         <v>6</v>
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="153" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>19</v>
@@ -1030,18 +1052,18 @@
         <v>2</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>19</v>
@@ -1050,22 +1072,22 @@
         <v>3</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <f>A11+1</f>
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E12" s="15">
         <v>16</v>
@@ -1075,19 +1097,19 @@
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <f t="shared" ref="A13" si="0">A12+1</f>
         <v>4</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E13" s="29">
         <v>2</v>
@@ -1097,21 +1119,21 @@
       </c>
       <c r="G13" s="32"/>
       <c r="H13" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>5</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E14" s="29">
         <v>16</v>
@@ -1121,10 +1143,10 @@
       </c>
       <c r="G14" s="32"/>
       <c r="H14" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -1135,19 +1157,19 @@
         <v>21</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G15" s="25"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>7</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>24</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>19</v>
@@ -1157,33 +1179,33 @@
       </c>
       <c r="G16" s="26"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>8</v>
       </c>
       <c r="B17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>26</v>
-      </c>
       <c r="D17" s="15" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G17" s="26"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>9</v>
       </c>
       <c r="B18" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="D18" s="15" t="s">
         <v>28</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>29</v>
       </c>
       <c r="E18" s="15">
         <v>6</v>
@@ -1207,22 +1229,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="A2:B20"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
@@ -1231,6 +1253,14 @@
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1245,33 +1275,33 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.90625" customWidth="1"/>
+    <col min="1" max="1" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" customWidth="1"/>
+    <col min="3" max="3" width="60.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
